--- a/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>Validaciones Generales CompraCartera_GYG /3. Búsqueda del id del esquema</t>
+  </si>
+  <si>
+    <t>Leyenda de colores en destinos</t>
+  </si>
+  <si>
+    <t>Cargados por otra fuente</t>
+  </si>
+  <si>
+    <t>Fecha de fin para cierre de registros</t>
   </si>
 </sst>
 </file>
@@ -574,7 +583,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,8 +730,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1262,6 +1283,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1352,7 +1384,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -1441,54 +1473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1502,6 +1486,69 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1984,7 +2031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1994,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2032,47 +2079,62 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="10"/>
+      <c r="H2" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="10"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="7"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2084,29 +2146,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2158,18 +2220,18 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="73">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="40"/>
       <c r="I9" s="41">
         <v>2</v>
@@ -2180,7 +2242,7 @@
       <c r="K9" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="72"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="51">
         <v>2</v>
       </c>
@@ -2211,7 +2273,7 @@
       <c r="K10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="72"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="47">
         <v>3</v>
       </c>
@@ -2240,7 +2302,7 @@
       <c r="K11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="72"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="47">
         <v>4</v>
       </c>
@@ -2269,7 +2331,7 @@
       <c r="K12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="72"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="52">
         <v>5</v>
       </c>
@@ -2298,7 +2360,7 @@
       <c r="K13" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="70"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="52">
         <v>6</v>
       </c>
@@ -2327,7 +2389,7 @@
       <c r="K14" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="70"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="52">
         <v>8</v>
       </c>
@@ -2356,7 +2418,7 @@
       <c r="K15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="70"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="52">
         <v>8</v>
       </c>
@@ -2379,13 +2441,13 @@
       <c r="I16" s="32">
         <v>9</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="55" t="s">
         <v>62</v>
       </c>
       <c r="K16" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="70"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="52">
         <v>8</v>
       </c>
@@ -2556,7 +2618,7 @@
       <c r="R24" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M7:R7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B7:G7"/>
@@ -2564,6 +2626,7 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t>Fecha de fin para cierre de registros</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -743,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1162,12 +1174,47 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1177,7 +1224,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1186,114 +1233,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1451,41 +1426,39 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,15 +1515,17 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2031,7 +2006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2041,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2059,7 +2034,7 @@
     <col min="10" max="10" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="77.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
-    <col min="13" max="13" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
@@ -2079,62 +2054,62 @@
         <v>15</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="82"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="34"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="55" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="35"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2146,29 +2121,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2220,61 +2195,61 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="57">
+      <c r="B9" s="52">
         <v>1</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41">
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="80">
         <v>2</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="51">
+      <c r="L9" s="51"/>
+      <c r="M9" s="46">
         <v>2</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="46" t="s">
+      <c r="R9" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H10" s="40"/>
-      <c r="I10" s="33">
+      <c r="H10" s="44"/>
+      <c r="I10" s="42">
         <v>3</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="47">
+      <c r="L10" s="51"/>
+      <c r="M10" s="42">
         <v>3</v>
       </c>
       <c r="N10" s="31" t="s">
@@ -2289,21 +2264,21 @@
       <c r="Q10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="36"/>
+      <c r="R10" s="34"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H11" s="40"/>
-      <c r="I11" s="33">
+      <c r="H11" s="44"/>
+      <c r="I11" s="42">
         <v>4</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="47">
+      <c r="L11" s="51"/>
+      <c r="M11" s="42">
         <v>4</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -2318,21 +2293,21 @@
       <c r="Q11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="36"/>
+      <c r="R11" s="34"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="40"/>
-      <c r="I12" s="33">
+      <c r="H12" s="44"/>
+      <c r="I12" s="42">
         <v>5</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="52">
+      <c r="L12" s="51"/>
+      <c r="M12" s="47">
         <v>5</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -2347,21 +2322,21 @@
       <c r="Q12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="36"/>
+      <c r="R12" s="34"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="40"/>
-      <c r="I13" s="33">
+      <c r="H13" s="44"/>
+      <c r="I13" s="42">
         <v>6</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="52">
+      <c r="L13" s="49"/>
+      <c r="M13" s="47">
         <v>6</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -2376,21 +2351,21 @@
       <c r="Q13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="36"/>
+      <c r="R13" s="34"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="40"/>
-      <c r="I14" s="33">
+      <c r="H14" s="44"/>
+      <c r="I14" s="42">
         <v>7</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="52">
+      <c r="L14" s="49"/>
+      <c r="M14" s="47">
         <v>8</v>
       </c>
       <c r="N14" s="31" t="s">
@@ -2405,21 +2380,21 @@
       <c r="Q14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="34"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="40"/>
-      <c r="I15" s="33">
+      <c r="H15" s="44"/>
+      <c r="I15" s="42">
         <v>8</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="52">
+      <c r="L15" s="49"/>
+      <c r="M15" s="47">
         <v>8</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -2434,21 +2409,21 @@
       <c r="Q15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="34"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="45"/>
-      <c r="I16" s="32">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H16" s="44"/>
+      <c r="I16" s="42">
         <v>9</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="52">
+      <c r="L16" s="49"/>
+      <c r="M16" s="47">
         <v>8</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -2463,12 +2438,22 @@
       <c r="Q16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="36"/>
+      <c r="R16" s="34"/>
     </row>
-    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H17" s="44"/>
+      <c r="I17" s="42">
+        <v>10</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="L17" s="49"/>
-      <c r="M17" s="52">
-        <v>3</v>
+      <c r="M17" s="47">
+        <v>10</v>
       </c>
       <c r="N17" s="31" t="s">
         <v>57</v>
@@ -2482,30 +2467,40 @@
       <c r="Q17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="36"/>
+      <c r="R17" s="34"/>
     </row>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="45"/>
+      <c r="I18" s="43">
+        <v>11</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="L18" s="49"/>
-      <c r="M18" s="52">
-        <v>9</v>
-      </c>
-      <c r="N18" s="31" t="s">
+      <c r="M18" s="81">
+        <v>11</v>
+      </c>
+      <c r="N18" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="31" t="s">
+      <c r="Q18" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="36"/>
+      <c r="R18" s="83"/>
     </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L19" s="49"/>
-      <c r="M19" s="52">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L19" s="44"/>
+      <c r="M19" s="47">
         <v>7</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -2520,11 +2515,11 @@
       <c r="Q19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="36"/>
+      <c r="R19" s="34"/>
     </row>
-    <row r="20" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L20" s="49"/>
-      <c r="M20" s="52">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L20" s="44"/>
+      <c r="M20" s="47">
         <v>1</v>
       </c>
       <c r="N20" s="31" t="s">
@@ -2539,11 +2534,11 @@
       <c r="Q20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="34"/>
+      <c r="R20" s="32"/>
     </row>
-    <row r="21" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="49"/>
-      <c r="M21" s="47">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L21" s="44"/>
+      <c r="M21" s="42">
         <v>9</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -2558,11 +2553,11 @@
       <c r="Q21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="34"/>
+      <c r="R21" s="32"/>
     </row>
-    <row r="22" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="49"/>
-      <c r="M22" s="47">
+    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L22" s="44"/>
+      <c r="M22" s="42">
         <v>9</v>
       </c>
       <c r="N22" s="31" t="s">
@@ -2577,11 +2572,11 @@
       <c r="Q22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="34"/>
+      <c r="R22" s="32"/>
     </row>
-    <row r="23" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="49"/>
-      <c r="M23" s="47">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L23" s="44"/>
+      <c r="M23" s="42">
         <v>9</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -2596,26 +2591,26 @@
       <c r="Q23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="34"/>
+      <c r="R23" s="32"/>
     </row>
-    <row r="24" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="50"/>
-      <c r="M24" s="48">
+    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="45"/>
+      <c r="M24" s="43">
         <v>9</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="P24" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="39" t="s">
+      <c r="Q24" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="35"/>
+      <c r="R24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
@@ -74,30 +74,6 @@
           </rPr>
           <t xml:space="preserve">
 Detallar solo si aplica.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>dlira:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Identificador unico, este numero debe ser correlativo con el identificador de los campos de la interface de entrada. No debe repetirse.</t>
         </r>
       </text>
     </comment>
@@ -202,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="237">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -228,9 +204,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Reglas de negocio</t>
-  </si>
-  <si>
     <t>Cantidad de Registros Aproximados</t>
   </si>
   <si>
@@ -414,9 +387,6 @@
     <t>Cargados por otra fuente</t>
   </si>
   <si>
-    <t>Fecha de fin para cierre de registros</t>
-  </si>
-  <si>
     <t>Asignar parametro Fecha Proceso</t>
   </si>
   <si>
@@ -427,6 +397,498 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>TIPCAR</t>
+  </si>
+  <si>
+    <t>CALIF_CART</t>
+  </si>
+  <si>
+    <t>VARCHAR(1)</t>
+  </si>
+  <si>
+    <t>NROOBLIG</t>
+  </si>
+  <si>
+    <t>VARCHAR(16)</t>
+  </si>
+  <si>
+    <t>NROIDENT</t>
+  </si>
+  <si>
+    <t>NUMBER(12)</t>
+  </si>
+  <si>
+    <t>PRAPELLIDO</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>SEAPELLIDO</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>COD_OFIC</t>
+  </si>
+  <si>
+    <t>VARCHAR(3)</t>
+  </si>
+  <si>
+    <t>FECDES</t>
+  </si>
+  <si>
+    <t>FECVEN</t>
+  </si>
+  <si>
+    <t>PLAZO</t>
+  </si>
+  <si>
+    <t>NUMBER(6)</t>
+  </si>
+  <si>
+    <t>PERIOD_CAP</t>
+  </si>
+  <si>
+    <t>TIPO_PLAZO</t>
+  </si>
+  <si>
+    <t>PERIOD_INT</t>
+  </si>
+  <si>
+    <t>MODAL_INT</t>
+  </si>
+  <si>
+    <t>TIPO_TASACT</t>
+  </si>
+  <si>
+    <t>TASINT_CTE</t>
+  </si>
+  <si>
+    <t>NUMBER(8,4)</t>
+  </si>
+  <si>
+    <t>TASINT_MOR</t>
+  </si>
+  <si>
+    <t>VLR_DESEMB</t>
+  </si>
+  <si>
+    <t>NUMBER(18,2)</t>
+  </si>
+  <si>
+    <t>SAL_CAPITA</t>
+  </si>
+  <si>
+    <t>CODMONEDA</t>
+  </si>
+  <si>
+    <t>ULTP_CAP</t>
+  </si>
+  <si>
+    <t>ULTP_INT</t>
+  </si>
+  <si>
+    <t>FECMORA_K</t>
+  </si>
+  <si>
+    <t>DIASMORA_K</t>
+  </si>
+  <si>
+    <t>PROV_CAP</t>
+  </si>
+  <si>
+    <t>SALDO_INTC</t>
+  </si>
+  <si>
+    <t>SALDO_INTM</t>
+  </si>
+  <si>
+    <t>CTASXCBRAR</t>
+  </si>
+  <si>
+    <t>VLR_CUOTA</t>
+  </si>
+  <si>
+    <t>PROVI_INT</t>
+  </si>
+  <si>
+    <t>PROVI_CXC</t>
+  </si>
+  <si>
+    <t>CONTCAPUVR</t>
+  </si>
+  <si>
+    <t>CONTIN_NOC</t>
+  </si>
+  <si>
+    <t>INT_CONTIN</t>
+  </si>
+  <si>
+    <t>CUPO_APROB</t>
+  </si>
+  <si>
+    <t>VLRULPGCAP</t>
+  </si>
+  <si>
+    <t>VLRULPGINT</t>
+  </si>
+  <si>
+    <t>VLR_MORA</t>
+  </si>
+  <si>
+    <t>FEC_MORA_I</t>
+  </si>
+  <si>
+    <t>PROXPAGCAP</t>
+  </si>
+  <si>
+    <t>PROXPAGINT</t>
+  </si>
+  <si>
+    <t>LINEACREDI</t>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+  </si>
+  <si>
+    <t>COD_REESTR</t>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+  </si>
+  <si>
+    <t>TIPO_GTIA</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>COD_CIIU</t>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+  </si>
+  <si>
+    <t>PUNTOSADIC</t>
+  </si>
+  <si>
+    <t>TASCTE_INI</t>
+  </si>
+  <si>
+    <t>NUMBER(7,4)</t>
+  </si>
+  <si>
+    <t>TASAREPORT</t>
+  </si>
+  <si>
+    <t>TIPOTASAMO</t>
+  </si>
+  <si>
+    <t>TIPO CTA</t>
+  </si>
+  <si>
+    <t>NUMCTA</t>
+  </si>
+  <si>
+    <t>NUMBER(9)</t>
+  </si>
+  <si>
+    <t>DESTICRDTO</t>
+  </si>
+  <si>
+    <t>TIPOAMORTI</t>
+  </si>
+  <si>
+    <t>MARGENREDE</t>
+  </si>
+  <si>
+    <t>NUMBER(62)</t>
+  </si>
+  <si>
+    <t>DIASMORA_I</t>
+  </si>
+  <si>
+    <t>INT_E_REDE</t>
+  </si>
+  <si>
+    <t>NUMBER(84)</t>
+  </si>
+  <si>
+    <t>TINTE_REDE</t>
+  </si>
+  <si>
+    <t>CUOTA_PAGA</t>
+  </si>
+  <si>
+    <t>NUMBER(52)</t>
+  </si>
+  <si>
+    <t>GRACIA_K</t>
+  </si>
+  <si>
+    <t>NUMBER(2)</t>
+  </si>
+  <si>
+    <t>EST_COBRO</t>
+  </si>
+  <si>
+    <t>SIT_CLITE</t>
+  </si>
+  <si>
+    <t>TIPOPER</t>
+  </si>
+  <si>
+    <t>NAT_JURIDI</t>
+  </si>
+  <si>
+    <t>FEC_NACIM</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>COD_PAG</t>
+  </si>
+  <si>
+    <t>CUOTAREC_K</t>
+  </si>
+  <si>
+    <t>CUOTAREC_I</t>
+  </si>
+  <si>
+    <t>CUOTAESP_K</t>
+  </si>
+  <si>
+    <t>CUOTAESP_I</t>
+  </si>
+  <si>
+    <t>FECHA_FORM</t>
+  </si>
+  <si>
+    <t>NO_VECES</t>
+  </si>
+  <si>
+    <t>GRACIA_I</t>
+  </si>
+  <si>
+    <t>FACTOR_REE</t>
+  </si>
+  <si>
+    <t>nat sexo</t>
+  </si>
+  <si>
+    <t>Nat fec registro</t>
+  </si>
+  <si>
+    <t>Nat situacion cli</t>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+  </si>
+  <si>
+    <t>Nat cliente banco</t>
+  </si>
+  <si>
+    <t>nat estado civil</t>
+  </si>
+  <si>
+    <t>nat estrato</t>
+  </si>
+  <si>
+    <t>nat nivel academico</t>
+  </si>
+  <si>
+    <t>nat empresa</t>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+  </si>
+  <si>
+    <t>nat personas cargo</t>
+  </si>
+  <si>
+    <t>nat tipo vivienda</t>
+  </si>
+  <si>
+    <t>nat fec ingreso</t>
+  </si>
+  <si>
+    <t>nat fecha residencia</t>
+  </si>
+  <si>
+    <t>nat ciudad residencia</t>
+  </si>
+  <si>
+    <t>VARCHAR(7)</t>
+  </si>
+  <si>
+    <t>nat departamento residencia</t>
+  </si>
+  <si>
+    <t>Vinculo laboral</t>
+  </si>
+  <si>
+    <t>ing ingresos salario</t>
+  </si>
+  <si>
+    <t>ing otros ingresos</t>
+  </si>
+  <si>
+    <t>ing egresos brutos</t>
+  </si>
+  <si>
+    <t>ing ingresos netos</t>
+  </si>
+  <si>
+    <t>Ing fec ingreso</t>
+  </si>
+  <si>
+    <t>ing no obliga</t>
+  </si>
+  <si>
+    <t>Ing producto</t>
+  </si>
+  <si>
+    <t>Identificación pagaduría</t>
+  </si>
+  <si>
+    <t>Sector pagaduría</t>
+  </si>
+  <si>
+    <t>Subsector</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>Fecha constitución pagaduría</t>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
+  </si>
+  <si>
+    <t>Fecha de antigüedad pagaduría en el banco</t>
+  </si>
+  <si>
+    <t>Tipo _ nomina</t>
+  </si>
+  <si>
+    <t>Naturaleza Jurídica</t>
+  </si>
+  <si>
+    <t>Ciudad pagaduría</t>
+  </si>
+  <si>
+    <t>NUMBER(7)</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Oficina</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>VARCHAR(60)</t>
+  </si>
+  <si>
+    <t>Teléfono pagaduría</t>
+  </si>
+  <si>
+    <t>Nit Consolidador</t>
+  </si>
+  <si>
+    <t>Sucursal consolidadora</t>
+  </si>
+  <si>
+    <t>Certificacion</t>
+  </si>
+  <si>
+    <t>Capacidad tecnológica</t>
+  </si>
+  <si>
+    <t>Facilidad reprogramación descuentos</t>
+  </si>
+  <si>
+    <t>Situación Jurídica</t>
+  </si>
+  <si>
+    <t>Numero de empleados</t>
+  </si>
+  <si>
+    <t>Indicador de cumplimiento</t>
+  </si>
+  <si>
+    <t>NUMBER(1,5)</t>
+  </si>
+  <si>
+    <t>Numero de libranzas</t>
+  </si>
+  <si>
+    <t>Estado pagaduría</t>
+  </si>
+  <si>
+    <t>Fecha de corte</t>
+  </si>
+  <si>
+    <t>Fecha Mes Evaluado</t>
+  </si>
+  <si>
+    <t>Mesn</t>
+  </si>
+  <si>
+    <t>Atraso presentado en el Mes evaluado</t>
+  </si>
+  <si>
+    <t>Valor Mensual de Cumplimiento Real (VMCR)</t>
+  </si>
+  <si>
+    <t>NUMBER(7,5)</t>
+  </si>
+  <si>
+    <t>Valor Mensual de Cumplimiento Esperado (VMCE)</t>
+  </si>
+  <si>
+    <t>Valor Indicador de Cumplimiento (IC)</t>
+  </si>
+  <si>
+    <t>NUMBER(6,5)</t>
+  </si>
+  <si>
+    <t>GARCRE CONSE GARANTIA</t>
+  </si>
+  <si>
+    <t>GARCRE NO OBLIGA</t>
+  </si>
+  <si>
+    <t>GARCRE OFICINA</t>
+  </si>
+  <si>
+    <t>GARCRE_PRODUCTO</t>
+  </si>
+  <si>
+    <t>Fecha de fin del registro</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del registro</t>
   </si>
 </sst>
 </file>
@@ -595,7 +1057,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,8 +1216,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1218,22 +1686,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1242,7 +1706,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1252,20 +1716,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1359,7 +1810,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -1446,86 +1897,131 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2014,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R24"/>
+  <dimension ref="B1:R142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2030,11 +2526,11 @@
     <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="77.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
@@ -2051,66 +2547,71 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="D2" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
+      <c r="H2" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="D3" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="57"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="33"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="D5" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -2121,29 +2622,27 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2156,30 +2655,30 @@
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>11</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="22" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" s="20" t="s">
         <v>1</v>
@@ -2188,429 +2687,2261 @@
         <v>3</v>
       </c>
       <c r="Q8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="76">
         <v>1</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="80">
-        <v>2</v>
+      <c r="C9" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="53">
+        <v>135</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="51"/>
       <c r="M9" s="46">
+        <v>135</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="80">
         <v>2</v>
       </c>
-      <c r="N9" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H10" s="44"/>
+      <c r="C10" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="49"/>
       <c r="I10" s="42">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="51"/>
       <c r="M10" s="42">
+        <v>136</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="80">
         <v>3</v>
       </c>
-      <c r="N10" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="34"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H11" s="44"/>
+      <c r="C11" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="42">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>38</v>
       </c>
       <c r="L11" s="51"/>
       <c r="M11" s="42">
+        <v>137</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="80">
         <v>4</v>
       </c>
-      <c r="N11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="34"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="44"/>
+      <c r="C12" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="42">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L12" s="51"/>
       <c r="M12" s="47">
+        <v>138</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="84">
         <v>5</v>
       </c>
-      <c r="N12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="34"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="44"/>
+      <c r="C13" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="42">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="47">
+        <v>139</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="80">
         <v>6</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="C14" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="42">
+        <v>140</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>57</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="34"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="44"/>
-      <c r="I14" s="42">
-        <v>7</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>58</v>
       </c>
       <c r="L14" s="49"/>
       <c r="M14" s="47">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O14" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R14" s="34"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="44"/>
+      <c r="B15" s="80">
+        <v>7</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="42">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15" s="49"/>
       <c r="M15" s="47">
+        <v>141</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="84">
         <v>8</v>
       </c>
-      <c r="N15" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="34"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="44"/>
+      <c r="C16" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="42">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L16" s="49"/>
       <c r="M16" s="47">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="80">
+        <v>9</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="42">
+        <v>143</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="102">
+        <v>143</v>
+      </c>
+      <c r="N17" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="34"/>
-    </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="44"/>
-      <c r="I17" s="42">
+      <c r="P17" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="104"/>
+    </row>
+    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="80">
         <v>10</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="C18" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="43">
+        <v>144</v>
+      </c>
+      <c r="J18" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K18" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="47">
-        <v>10</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="31" t="s">
+      <c r="L18" s="49"/>
+      <c r="M18" s="54">
+        <v>144</v>
+      </c>
+      <c r="N18" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="34"/>
-    </row>
-    <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="45"/>
-      <c r="I18" s="43">
+      <c r="R18" s="56"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="84">
         <v>11</v>
       </c>
-      <c r="J18" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="81">
-        <v>11</v>
-      </c>
-      <c r="N18" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="83"/>
-    </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="C19" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
       <c r="L19" s="44"/>
       <c r="M19" s="47">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R19" s="34"/>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="80">
+        <v>12</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
       <c r="L20" s="44"/>
       <c r="M20" s="47">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="P20" s="31" t="s">
-        <v>48</v>
-      </c>
       <c r="Q20" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R20" s="32"/>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="80">
+        <v>13</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
       <c r="L21" s="44"/>
       <c r="M21" s="42">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R21" s="32"/>
     </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="84">
+        <v>14</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
       <c r="L22" s="44"/>
       <c r="M22" s="42">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P22" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R22" s="32"/>
     </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="80">
+        <v>15</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
       <c r="L23" s="44"/>
       <c r="M23" s="42">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O23" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="31" t="s">
-        <v>52</v>
-      </c>
       <c r="Q23" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R23" s="32"/>
     </row>
-    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="80">
+        <v>16</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="87"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
       <c r="L24" s="45"/>
       <c r="M24" s="43">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="N24" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="84">
+        <v>17</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="80">
+        <v>18</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="88"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="80">
+        <v>19</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="84">
+        <v>20</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="88"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="80">
+        <v>21</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="88"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="80">
+        <v>22</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="84">
+        <v>23</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="80">
+        <v>24</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="88"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="80">
+        <v>25</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="84">
+        <v>26</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="88"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="80">
+        <v>27</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="88"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="80">
+        <v>28</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="88"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="84">
+        <v>29</v>
+      </c>
+      <c r="C37" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="88"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="80">
+        <v>30</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="88"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="80">
+        <v>31</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="88"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="86"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="84">
+        <v>32</v>
+      </c>
+      <c r="C40" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="80">
+        <v>33</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="80">
+        <v>34</v>
+      </c>
+      <c r="C42" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="86"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="84">
+        <v>35</v>
+      </c>
+      <c r="C43" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="86"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="80">
+        <v>36</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="80">
+        <v>37</v>
+      </c>
+      <c r="C45" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="86"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="84">
+        <v>38</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="86"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="80">
+        <v>39</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="80">
+        <v>40</v>
+      </c>
+      <c r="C48" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="86"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="84">
+        <v>41</v>
+      </c>
+      <c r="C49" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="86"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="80">
+        <v>42</v>
+      </c>
+      <c r="C50" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="86"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="80">
+        <v>43</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="86"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="84">
+        <v>44</v>
+      </c>
+      <c r="C52" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="86"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="80">
+        <v>45</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="86"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="80">
+        <v>46</v>
+      </c>
+      <c r="C54" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="86"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="84">
+        <v>47</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="86"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="80">
+        <v>48</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="86"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="80">
+        <v>49</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="86"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="84">
+        <v>50</v>
+      </c>
+      <c r="C58" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="86"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="80">
+        <v>51</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="86"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="80">
+        <v>52</v>
+      </c>
+      <c r="C60" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="86"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="84">
+        <v>53</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="86"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="80">
+        <v>54</v>
+      </c>
+      <c r="C62" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="86"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="80">
+        <v>55</v>
+      </c>
+      <c r="C63" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="86"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="84">
+        <v>56</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="86"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="80">
         <v>57</v>
       </c>
-      <c r="O24" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="33"/>
+      <c r="C65" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="86"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="80">
+        <v>58</v>
+      </c>
+      <c r="C66" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="86"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="84">
+        <v>59</v>
+      </c>
+      <c r="C67" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="86"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="80">
+        <v>60</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="86"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="80">
+        <v>61</v>
+      </c>
+      <c r="C69" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="86"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="84">
+        <v>62</v>
+      </c>
+      <c r="C70" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="86"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="80">
+        <v>63</v>
+      </c>
+      <c r="C71" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="86"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="80">
+        <v>64</v>
+      </c>
+      <c r="C72" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="86"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="84">
+        <v>65</v>
+      </c>
+      <c r="C73" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="86"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="80">
+        <v>66</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="86"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="80">
+        <v>67</v>
+      </c>
+      <c r="C75" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="86"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="84">
+        <v>68</v>
+      </c>
+      <c r="C76" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="86"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="80">
+        <v>69</v>
+      </c>
+      <c r="C77" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="86"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="80">
+        <v>70</v>
+      </c>
+      <c r="C78" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="86"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="84">
+        <v>71</v>
+      </c>
+      <c r="C79" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="86"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="80">
+        <v>72</v>
+      </c>
+      <c r="C80" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="86"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="80">
+        <v>73</v>
+      </c>
+      <c r="C81" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="86"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="84">
+        <v>74</v>
+      </c>
+      <c r="C82" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="86"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="80">
+        <v>75</v>
+      </c>
+      <c r="C83" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="86"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="80">
+        <v>76</v>
+      </c>
+      <c r="C84" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="86"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="84">
+        <v>77</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="86"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="80">
+        <v>78</v>
+      </c>
+      <c r="C86" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="86"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="80">
+        <v>79</v>
+      </c>
+      <c r="C87" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="86"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="84">
+        <v>80</v>
+      </c>
+      <c r="C88" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="86"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="80">
+        <v>81</v>
+      </c>
+      <c r="C89" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="86"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="80">
+        <v>82</v>
+      </c>
+      <c r="C90" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="86"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="84">
+        <v>83</v>
+      </c>
+      <c r="C91" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="86"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="80">
+        <v>84</v>
+      </c>
+      <c r="C92" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="86"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="80">
+        <v>85</v>
+      </c>
+      <c r="C93" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="86"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="84">
+        <v>86</v>
+      </c>
+      <c r="C94" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="86"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="80">
+        <v>87</v>
+      </c>
+      <c r="C95" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="86"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="80">
+        <v>88</v>
+      </c>
+      <c r="C96" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="86"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="84">
+        <v>89</v>
+      </c>
+      <c r="C97" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="86"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="80">
+        <v>90</v>
+      </c>
+      <c r="C98" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="86"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="80">
+        <v>91</v>
+      </c>
+      <c r="C99" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="86"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="84">
+        <v>92</v>
+      </c>
+      <c r="C100" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="86"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="80">
+        <v>93</v>
+      </c>
+      <c r="C101" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="86"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="80">
+        <v>94</v>
+      </c>
+      <c r="C102" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D102" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="86"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="84">
+        <v>95</v>
+      </c>
+      <c r="C103" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="86"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="80">
+        <v>96</v>
+      </c>
+      <c r="C104" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="86"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="80">
+        <v>97</v>
+      </c>
+      <c r="C105" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="86"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="84">
+        <v>98</v>
+      </c>
+      <c r="C106" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="86"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="80">
+        <v>99</v>
+      </c>
+      <c r="C107" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="86"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="80">
+        <v>100</v>
+      </c>
+      <c r="C108" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="86"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="84">
+        <v>101</v>
+      </c>
+      <c r="C109" s="90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="86"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="80">
+        <v>102</v>
+      </c>
+      <c r="C110" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="86"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="80">
+        <v>103</v>
+      </c>
+      <c r="C111" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D111" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="86"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="84">
+        <v>104</v>
+      </c>
+      <c r="C112" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="85"/>
+      <c r="G112" s="86"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="80">
+        <v>105</v>
+      </c>
+      <c r="C113" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D113" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="86"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="80">
+        <v>106</v>
+      </c>
+      <c r="C114" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="86"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="84">
+        <v>107</v>
+      </c>
+      <c r="C115" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="86"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="80">
+        <v>108</v>
+      </c>
+      <c r="C116" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="86"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="80">
+        <v>109</v>
+      </c>
+      <c r="C117" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="D117" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="86"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="84">
+        <v>110</v>
+      </c>
+      <c r="C118" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D118" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="86"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="80">
+        <v>111</v>
+      </c>
+      <c r="C119" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="86"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="80">
+        <v>112</v>
+      </c>
+      <c r="C120" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D120" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="86"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="84">
+        <v>113</v>
+      </c>
+      <c r="C121" s="90" t="s">
+        <v>210</v>
+      </c>
+      <c r="D121" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E121" s="24"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="86"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="80">
+        <v>114</v>
+      </c>
+      <c r="C122" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D122" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="86"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="80">
+        <v>115</v>
+      </c>
+      <c r="C123" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="D123" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="86"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="84">
+        <v>116</v>
+      </c>
+      <c r="C124" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="86"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" s="80">
+        <v>117</v>
+      </c>
+      <c r="C125" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="86"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="80">
+        <v>118</v>
+      </c>
+      <c r="C126" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D126" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="86"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="84">
+        <v>119</v>
+      </c>
+      <c r="C127" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D127" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="86"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="80">
+        <v>120</v>
+      </c>
+      <c r="C128" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="D128" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="86"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="80">
+        <v>121</v>
+      </c>
+      <c r="C129" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="D129" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="86"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="84">
+        <v>122</v>
+      </c>
+      <c r="C130" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="86"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="80">
+        <v>123</v>
+      </c>
+      <c r="C131" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="86"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="80">
+        <v>124</v>
+      </c>
+      <c r="C132" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="D132" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="85"/>
+      <c r="G132" s="86"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" s="84">
+        <v>125</v>
+      </c>
+      <c r="C133" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="D133" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="24"/>
+      <c r="F133" s="85"/>
+      <c r="G133" s="86"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="80">
+        <v>126</v>
+      </c>
+      <c r="C134" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="D134" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="85"/>
+      <c r="G134" s="86"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="80">
+        <v>127</v>
+      </c>
+      <c r="C135" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D135" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="86"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="84">
+        <v>128</v>
+      </c>
+      <c r="C136" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="D136" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="85"/>
+      <c r="G136" s="86"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="80">
+        <v>129</v>
+      </c>
+      <c r="C137" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="86"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="80">
+        <v>130</v>
+      </c>
+      <c r="C138" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="D138" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="86"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="84">
+        <v>131</v>
+      </c>
+      <c r="C139" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139" s="24"/>
+      <c r="F139" s="85"/>
+      <c r="G139" s="86"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" s="80">
+        <v>132</v>
+      </c>
+      <c r="C140" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="D140" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="86"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="80">
+        <v>133</v>
+      </c>
+      <c r="C141" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D141" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="86"/>
+    </row>
+    <row r="142" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="98">
+        <v>134</v>
+      </c>
+      <c r="C142" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E142" s="50"/>
+      <c r="F142" s="93"/>
+      <c r="G142" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="235">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -609,27 +609,18 @@
     <t>MARGENREDE</t>
   </si>
   <si>
-    <t>NUMBER(62)</t>
-  </si>
-  <si>
     <t>DIASMORA_I</t>
   </si>
   <si>
     <t>INT_E_REDE</t>
   </si>
   <si>
-    <t>NUMBER(84)</t>
-  </si>
-  <si>
     <t>TINTE_REDE</t>
   </si>
   <si>
     <t>CUOTA_PAGA</t>
   </si>
   <si>
-    <t>NUMBER(52)</t>
-  </si>
-  <si>
     <t>GRACIA_K</t>
   </si>
   <si>
@@ -889,6 +880,9 @@
   </si>
   <si>
     <t>Fecha de inicio del registro</t>
+  </si>
+  <si>
+    <t>NUMBER(38)</t>
   </si>
 </sst>
 </file>
@@ -1902,63 +1896,6 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2022,6 +1959,63 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2502,7 +2496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2512,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D135" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2550,30 +2544,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="99"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="24" t="s">
         <v>68</v>
       </c>
@@ -2584,15 +2578,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="100"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J4" s="28"/>
     </row>
@@ -2601,15 +2595,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="101"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J5" s="28"/>
     </row>
@@ -2622,27 +2616,27 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2694,18 +2688,18 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="76">
+      <c r="B9" s="57">
         <v>1</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="96"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="77"/>
       <c r="H9" s="49"/>
       <c r="I9" s="53">
         <v>135</v>
@@ -2737,18 +2731,18 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="80">
+      <c r="B10" s="61">
         <v>2</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="63" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="97"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="49"/>
       <c r="I10" s="42">
         <v>136</v>
@@ -2778,18 +2772,18 @@
       <c r="R10" s="34"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="80">
+      <c r="B11" s="61">
         <v>3</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="63" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="35"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="97"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="49"/>
       <c r="I11" s="42">
         <v>137</v>
@@ -2819,18 +2813,18 @@
       <c r="R11" s="34"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="80">
+      <c r="B12" s="61">
         <v>4</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="63" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="35"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="97"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="49"/>
       <c r="I12" s="42">
         <v>138</v>
@@ -2860,18 +2854,18 @@
       <c r="R12" s="34"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="84">
+      <c r="B13" s="65">
         <v>5</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="63" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="35"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="49"/>
       <c r="I13" s="42">
         <v>139</v>
@@ -2901,18 +2895,18 @@
       <c r="R13" s="34"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="80">
+      <c r="B14" s="61">
         <v>6</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="63" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="35"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="49"/>
       <c r="I14" s="42">
         <v>140</v>
@@ -2942,18 +2936,18 @@
       <c r="R14" s="34"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="80">
+      <c r="B15" s="61">
         <v>7</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="63" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="35"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="49"/>
       <c r="I15" s="42">
         <v>141</v>
@@ -2983,18 +2977,18 @@
       <c r="R15" s="34"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="84">
+      <c r="B16" s="65">
         <v>8</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="63" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="35"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="49"/>
       <c r="I16" s="42">
         <v>142</v>
@@ -3024,18 +3018,18 @@
       <c r="R16" s="34"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="80">
+      <c r="B17" s="61">
         <v>9</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="35"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="49"/>
       <c r="I17" s="42">
         <v>143</v>
@@ -3047,37 +3041,37 @@
         <v>70</v>
       </c>
       <c r="L17" s="49"/>
-      <c r="M17" s="102">
+      <c r="M17" s="83">
         <v>143</v>
       </c>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="103" t="s">
+      <c r="O17" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="P17" s="103" t="s">
+      <c r="P17" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="103" t="s">
+      <c r="Q17" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="104"/>
+      <c r="R17" s="85"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80">
+      <c r="B18" s="61">
         <v>10</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="35"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="95"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="43">
         <v>144</v>
       </c>
@@ -3106,18 +3100,18 @@
       <c r="R18" s="56"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="84">
+      <c r="B19" s="65">
         <v>11</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="35"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
       <c r="L19" s="44"/>
       <c r="M19" s="47">
         <v>140</v>
@@ -3137,18 +3131,18 @@
       <c r="R19" s="34"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="80">
+      <c r="B20" s="61">
         <v>12</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="63" t="s">
         <v>90</v>
       </c>
       <c r="E20" s="35"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
       <c r="L20" s="44"/>
       <c r="M20" s="47">
         <v>9</v>
@@ -3168,18 +3162,18 @@
       <c r="R20" s="32"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="80">
+      <c r="B21" s="61">
         <v>13</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="63" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="35"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
       <c r="L21" s="44"/>
       <c r="M21" s="42">
         <v>142</v>
@@ -3199,18 +3193,18 @@
       <c r="R21" s="32"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="84">
+      <c r="B22" s="65">
         <v>14</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="35"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
       <c r="L22" s="44"/>
       <c r="M22" s="42">
         <v>142</v>
@@ -3230,18 +3224,18 @@
       <c r="R22" s="32"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="80">
+      <c r="B23" s="61">
         <v>15</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="63" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="35"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
       <c r="L23" s="44"/>
       <c r="M23" s="42">
         <v>142</v>
@@ -3261,18 +3255,18 @@
       <c r="R23" s="32"/>
     </row>
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="80">
+      <c r="B24" s="61">
         <v>16</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
       <c r="L24" s="45"/>
       <c r="M24" s="43">
         <v>142</v>
@@ -3292,1656 +3286,1656 @@
       <c r="R24" s="33"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="84">
+      <c r="B25" s="65">
         <v>17</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="80">
+      <c r="B26" s="61">
         <v>18</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="80">
+      <c r="B27" s="61">
         <v>19</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="84">
+      <c r="B28" s="65">
         <v>20</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="80">
+      <c r="B29" s="61">
         <v>21</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="80">
+      <c r="B30" s="61">
         <v>22</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="84">
+      <c r="B31" s="65">
         <v>23</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="80">
+      <c r="B32" s="61">
         <v>24</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="80">
+      <c r="B33" s="61">
         <v>25</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="82" t="s">
+      <c r="D33" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="84">
+      <c r="B34" s="65">
         <v>26</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="80">
+      <c r="B35" s="61">
         <v>27</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="82" t="s">
+      <c r="D35" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="80">
+      <c r="B36" s="61">
         <v>28</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="82" t="s">
+      <c r="D36" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="86"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="84">
+      <c r="B37" s="65">
         <v>29</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="80">
+      <c r="B38" s="61">
         <v>30</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="80">
+      <c r="B39" s="61">
         <v>31</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="84">
+      <c r="B40" s="65">
         <v>32</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="82" t="s">
+      <c r="D40" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E40" s="35"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="80">
+      <c r="B41" s="61">
         <v>33</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E41" s="35"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="80">
+      <c r="B42" s="61">
         <v>34</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="35"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="84">
+      <c r="B43" s="65">
         <v>35</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E43" s="35"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="86"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="80">
+      <c r="B44" s="61">
         <v>36</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E44" s="35"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="80">
+      <c r="B45" s="61">
         <v>37</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="35"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="84">
+      <c r="B46" s="65">
         <v>38</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E46" s="35"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="86"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="80">
+      <c r="B47" s="61">
         <v>39</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E47" s="24"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="80">
+      <c r="B48" s="61">
         <v>40</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="86"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="84">
+      <c r="B49" s="65">
         <v>41</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="82" t="s">
+      <c r="D49" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="86"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="80">
+      <c r="B50" s="61">
         <v>42</v>
       </c>
-      <c r="C50" s="81" t="s">
+      <c r="C50" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="82" t="s">
+      <c r="D50" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="86"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="80">
+      <c r="B51" s="61">
         <v>43</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D51" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="86"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="84">
+      <c r="B52" s="65">
         <v>44</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="63" t="s">
         <v>125</v>
       </c>
       <c r="E52" s="24"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="86"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="80">
+      <c r="B53" s="61">
         <v>45</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="82" t="s">
+      <c r="D53" s="63" t="s">
         <v>127</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="86"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="80">
+      <c r="B54" s="61">
         <v>46</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="86"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="84">
+      <c r="B55" s="65">
         <v>47</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="82" t="s">
+      <c r="D55" s="63" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="86"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="80">
+      <c r="B56" s="61">
         <v>48</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="C56" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="82" t="s">
+      <c r="D56" s="63" t="s">
         <v>131</v>
       </c>
       <c r="E56" s="24"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="86"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="80">
+      <c r="B57" s="61">
         <v>49</v>
       </c>
-      <c r="C57" s="81" t="s">
+      <c r="C57" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="82" t="s">
+      <c r="D57" s="63" t="s">
         <v>97</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="86"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="67"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="84">
+      <c r="B58" s="65">
         <v>50</v>
       </c>
-      <c r="C58" s="81" t="s">
+      <c r="C58" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="63" t="s">
         <v>134</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="86"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="80">
+      <c r="B59" s="61">
         <v>51</v>
       </c>
-      <c r="C59" s="81" t="s">
+      <c r="C59" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="82" t="s">
+      <c r="D59" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="86"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="80">
+      <c r="B60" s="61">
         <v>52</v>
       </c>
-      <c r="C60" s="81" t="s">
+      <c r="C60" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="86"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="67"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="84">
+      <c r="B61" s="65">
         <v>53</v>
       </c>
-      <c r="C61" s="81" t="s">
+      <c r="C61" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="82" t="s">
+      <c r="D61" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="86"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="67"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="80">
+      <c r="B62" s="61">
         <v>54</v>
       </c>
-      <c r="C62" s="81" t="s">
+      <c r="C62" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D62" s="63" t="s">
         <v>139</v>
       </c>
       <c r="E62" s="24"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="86"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="67"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="80">
+      <c r="B63" s="61">
         <v>55</v>
       </c>
-      <c r="C63" s="81" t="s">
+      <c r="C63" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="82" t="s">
+      <c r="D63" s="63" t="s">
         <v>125</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="86"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="67"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="84">
+      <c r="B64" s="65">
         <v>56</v>
       </c>
-      <c r="C64" s="81" t="s">
+      <c r="C64" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="82" t="s">
+      <c r="D64" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="86"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="67"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="80">
+      <c r="B65" s="61">
         <v>57</v>
       </c>
-      <c r="C65" s="81" t="s">
+      <c r="C65" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="82" t="s">
+      <c r="D65" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="61">
+        <v>58</v>
+      </c>
+      <c r="C66" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="86"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="80">
-        <v>58</v>
-      </c>
-      <c r="C66" s="81" t="s">
+      <c r="D66" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="65">
+        <v>59</v>
+      </c>
+      <c r="C67" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="82" t="s">
+      <c r="D67" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="67"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="61">
+        <v>60</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="67"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="61">
+        <v>61</v>
+      </c>
+      <c r="C69" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="67"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="65">
+        <v>62</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="67"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="61">
+        <v>63</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="67"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="61">
+        <v>64</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="67"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="65">
+        <v>65</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="67"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="61">
+        <v>66</v>
+      </c>
+      <c r="C74" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="67"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="61">
+        <v>67</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="67"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="65">
+        <v>68</v>
+      </c>
+      <c r="C76" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="61">
+        <v>69</v>
+      </c>
+      <c r="C77" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="61">
+        <v>70</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="65">
+        <v>71</v>
+      </c>
+      <c r="C79" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="67"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="61">
+        <v>72</v>
+      </c>
+      <c r="C80" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="67"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="61">
+        <v>73</v>
+      </c>
+      <c r="C81" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="67"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="65">
+        <v>74</v>
+      </c>
+      <c r="C82" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="67"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="61">
+        <v>75</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="67"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="61">
+        <v>76</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="67"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="65">
+        <v>77</v>
+      </c>
+      <c r="C85" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="67"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="61">
+        <v>78</v>
+      </c>
+      <c r="C86" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="67"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="61">
+        <v>79</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="67"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="65">
+        <v>80</v>
+      </c>
+      <c r="C88" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="67"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="61">
+        <v>81</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="67"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="61">
+        <v>82</v>
+      </c>
+      <c r="C90" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="67"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="65">
+        <v>83</v>
+      </c>
+      <c r="C91" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="67"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="61">
+        <v>84</v>
+      </c>
+      <c r="C92" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="67"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="61">
+        <v>85</v>
+      </c>
+      <c r="C93" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="67"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="65">
+        <v>86</v>
+      </c>
+      <c r="C94" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="67"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="61">
+        <v>87</v>
+      </c>
+      <c r="C95" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="67"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="61">
+        <v>88</v>
+      </c>
+      <c r="C96" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="67"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="65">
+        <v>89</v>
+      </c>
+      <c r="C97" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="67"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="61">
         <v>90</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="86"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="84">
+      <c r="C98" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="67"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="61">
+        <v>91</v>
+      </c>
+      <c r="C99" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="67"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="65">
+        <v>92</v>
+      </c>
+      <c r="C100" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="67"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="61">
+        <v>93</v>
+      </c>
+      <c r="C101" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="67"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="61">
+        <v>94</v>
+      </c>
+      <c r="C102" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="67"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="65">
+        <v>95</v>
+      </c>
+      <c r="C103" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="67"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="61">
+        <v>96</v>
+      </c>
+      <c r="C104" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="67"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="61">
+        <v>97</v>
+      </c>
+      <c r="C105" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="67"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="65">
+        <v>98</v>
+      </c>
+      <c r="C106" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="67"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="61">
+        <v>99</v>
+      </c>
+      <c r="C107" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="67"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="61">
+        <v>100</v>
+      </c>
+      <c r="C108" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="67"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="65">
+        <v>101</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="67"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="61">
+        <v>102</v>
+      </c>
+      <c r="C110" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="67"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="61">
+        <v>103</v>
+      </c>
+      <c r="C111" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D111" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="67"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="65">
+        <v>104</v>
+      </c>
+      <c r="C112" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D112" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="67"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="61">
+        <v>105</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="67"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="61">
+        <v>106</v>
+      </c>
+      <c r="C114" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="67"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="65">
+        <v>107</v>
+      </c>
+      <c r="C115" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="67"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="61">
+        <v>108</v>
+      </c>
+      <c r="C116" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="D116" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E116" s="24"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="67"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="61">
+        <v>109</v>
+      </c>
+      <c r="C117" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="67"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="65">
+        <v>110</v>
+      </c>
+      <c r="C118" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="67"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="61">
+        <v>111</v>
+      </c>
+      <c r="C119" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="67"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="61">
+        <v>112</v>
+      </c>
+      <c r="C120" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="67"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="65">
+        <v>113</v>
+      </c>
+      <c r="C121" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D121" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E121" s="24"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="67"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="61">
+        <v>114</v>
+      </c>
+      <c r="C122" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="66"/>
+      <c r="G122" s="67"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="61">
+        <v>115</v>
+      </c>
+      <c r="C123" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="67"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="65">
+        <v>116</v>
+      </c>
+      <c r="C124" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D124" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="67"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" s="61">
+        <v>117</v>
+      </c>
+      <c r="C125" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D125" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="67"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="61">
+        <v>118</v>
+      </c>
+      <c r="C126" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="D126" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="67"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="65">
+        <v>119</v>
+      </c>
+      <c r="C127" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D127" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="67"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="61">
+        <v>120</v>
+      </c>
+      <c r="C128" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="67"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="61">
+        <v>121</v>
+      </c>
+      <c r="C129" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D129" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="67"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="65">
+        <v>122</v>
+      </c>
+      <c r="C130" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D130" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="67"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="61">
+        <v>123</v>
+      </c>
+      <c r="C131" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D131" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="66"/>
+      <c r="G131" s="67"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="61">
+        <v>124</v>
+      </c>
+      <c r="C132" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D132" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="66"/>
+      <c r="G132" s="67"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" s="65">
+        <v>125</v>
+      </c>
+      <c r="C133" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D133" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="24"/>
+      <c r="F133" s="66"/>
+      <c r="G133" s="67"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="61">
+        <v>126</v>
+      </c>
+      <c r="C134" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D134" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="66"/>
+      <c r="G134" s="67"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="61">
+        <v>127</v>
+      </c>
+      <c r="C135" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D135" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="66"/>
+      <c r="G135" s="67"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="65">
+        <v>128</v>
+      </c>
+      <c r="C136" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="D136" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="67"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="61">
+        <v>129</v>
+      </c>
+      <c r="C137" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D137" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="67"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="61">
+        <v>130</v>
+      </c>
+      <c r="C138" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D138" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="66"/>
+      <c r="G138" s="67"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="65">
+        <v>131</v>
+      </c>
+      <c r="C139" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="86"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="80">
-        <v>60</v>
-      </c>
-      <c r="C68" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="86"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="80">
-        <v>61</v>
-      </c>
-      <c r="C69" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="86"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="84">
-        <v>62</v>
-      </c>
-      <c r="C70" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="86"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="80">
-        <v>63</v>
-      </c>
-      <c r="C71" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="86"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="80">
-        <v>64</v>
-      </c>
-      <c r="C72" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="D72" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="86"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="84">
-        <v>65</v>
-      </c>
-      <c r="C73" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="86"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="80">
-        <v>66</v>
-      </c>
-      <c r="C74" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="86"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="80">
-        <v>67</v>
-      </c>
-      <c r="C75" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="86"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="84">
-        <v>68</v>
-      </c>
-      <c r="C76" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="86"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="80">
-        <v>69</v>
-      </c>
-      <c r="C77" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="86"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="80">
-        <v>70</v>
-      </c>
-      <c r="C78" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" s="82" t="s">
+      <c r="E139" s="24"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="67"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" s="61">
+        <v>132</v>
+      </c>
+      <c r="C140" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D140" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="86"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="84">
-        <v>71</v>
-      </c>
-      <c r="C79" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="86"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="80">
-        <v>72</v>
-      </c>
-      <c r="C80" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="86"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="80">
-        <v>73</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="86"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="84">
-        <v>74</v>
-      </c>
-      <c r="C82" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="86"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="80">
-        <v>75</v>
-      </c>
-      <c r="C83" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="86"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="80">
-        <v>76</v>
-      </c>
-      <c r="C84" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="86"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="84">
-        <v>77</v>
-      </c>
-      <c r="C85" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="86"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="80">
-        <v>78</v>
-      </c>
-      <c r="C86" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="86"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="80">
-        <v>79</v>
-      </c>
-      <c r="C87" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="D87" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="86"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="84">
-        <v>80</v>
-      </c>
-      <c r="C88" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="D88" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="86"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="80">
-        <v>81</v>
-      </c>
-      <c r="C89" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="86"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="80">
-        <v>82</v>
-      </c>
-      <c r="C90" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="D90" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="86"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="84">
-        <v>83</v>
-      </c>
-      <c r="C91" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="86"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="80">
-        <v>84</v>
-      </c>
-      <c r="C92" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="86"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="80">
-        <v>85</v>
-      </c>
-      <c r="C93" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="86"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="84">
+      <c r="E140" s="24"/>
+      <c r="F140" s="66"/>
+      <c r="G140" s="67"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="61">
+        <v>133</v>
+      </c>
+      <c r="C141" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D141" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C94" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="D94" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="86"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="80">
-        <v>87</v>
-      </c>
-      <c r="C95" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="D95" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="86"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="80">
-        <v>88</v>
-      </c>
-      <c r="C96" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D96" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="86"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="84">
-        <v>89</v>
-      </c>
-      <c r="C97" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="D97" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="86"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="80">
-        <v>90</v>
-      </c>
-      <c r="C98" s="89" t="s">
-        <v>183</v>
-      </c>
-      <c r="D98" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="86"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" s="80">
-        <v>91</v>
-      </c>
-      <c r="C99" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="89" t="s">
-        <v>185</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="86"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100" s="84">
-        <v>92</v>
-      </c>
-      <c r="C100" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="D100" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="86"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B101" s="80">
-        <v>93</v>
-      </c>
-      <c r="C101" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="D101" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="86"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B102" s="80">
-        <v>94</v>
-      </c>
-      <c r="C102" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="D102" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="86"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B103" s="84">
-        <v>95</v>
-      </c>
-      <c r="C103" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="D103" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="86"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="80">
-        <v>96</v>
-      </c>
-      <c r="C104" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="D104" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="86"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="80">
-        <v>97</v>
-      </c>
-      <c r="C105" s="89" t="s">
-        <v>191</v>
-      </c>
-      <c r="D105" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="86"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="84">
-        <v>98</v>
-      </c>
-      <c r="C106" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="D106" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="86"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B107" s="80">
-        <v>99</v>
-      </c>
-      <c r="C107" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D107" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="86"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B108" s="80">
-        <v>100</v>
-      </c>
-      <c r="C108" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="D108" s="89" t="s">
+      <c r="E141" s="24"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="67"/>
+    </row>
+    <row r="142" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="79">
+        <v>134</v>
+      </c>
+      <c r="C142" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D142" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="86"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="84">
-        <v>101</v>
-      </c>
-      <c r="C109" s="90" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="86"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="80">
-        <v>102</v>
-      </c>
-      <c r="C110" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D110" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="86"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="80">
-        <v>103</v>
-      </c>
-      <c r="C111" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="D111" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="86"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B112" s="84">
-        <v>104</v>
-      </c>
-      <c r="C112" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="85"/>
-      <c r="G112" s="86"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B113" s="80">
-        <v>105</v>
-      </c>
-      <c r="C113" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="D113" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="86"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="80">
-        <v>106</v>
-      </c>
-      <c r="C114" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="D114" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="85"/>
-      <c r="G114" s="86"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="84">
-        <v>107</v>
-      </c>
-      <c r="C115" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="D115" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="86"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B116" s="80">
-        <v>108</v>
-      </c>
-      <c r="C116" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="D116" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="86"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B117" s="80">
-        <v>109</v>
-      </c>
-      <c r="C117" s="90" t="s">
-        <v>204</v>
-      </c>
-      <c r="D117" s="89" t="s">
-        <v>205</v>
-      </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="86"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B118" s="84">
-        <v>110</v>
-      </c>
-      <c r="C118" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="D118" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="86"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B119" s="80">
-        <v>111</v>
-      </c>
-      <c r="C119" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="D119" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="85"/>
-      <c r="G119" s="86"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B120" s="80">
-        <v>112</v>
-      </c>
-      <c r="C120" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="D120" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="86"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B121" s="84">
-        <v>113</v>
-      </c>
-      <c r="C121" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="D121" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="86"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B122" s="80">
-        <v>114</v>
-      </c>
-      <c r="C122" s="90" t="s">
-        <v>211</v>
-      </c>
-      <c r="D122" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="86"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B123" s="80">
-        <v>115</v>
-      </c>
-      <c r="C123" s="90" t="s">
-        <v>212</v>
-      </c>
-      <c r="D123" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="86"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B124" s="84">
-        <v>116</v>
-      </c>
-      <c r="C124" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="85"/>
-      <c r="G124" s="86"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B125" s="80">
-        <v>117</v>
-      </c>
-      <c r="C125" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="D125" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="86"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B126" s="80">
-        <v>118</v>
-      </c>
-      <c r="C126" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="D126" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="85"/>
-      <c r="G126" s="86"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B127" s="84">
-        <v>119</v>
-      </c>
-      <c r="C127" s="89" t="s">
-        <v>216</v>
-      </c>
-      <c r="D127" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="85"/>
-      <c r="G127" s="86"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B128" s="80">
-        <v>120</v>
-      </c>
-      <c r="C128" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="85"/>
-      <c r="G128" s="86"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="80">
-        <v>121</v>
-      </c>
-      <c r="C129" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="D129" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="85"/>
-      <c r="G129" s="86"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" s="84">
-        <v>122</v>
-      </c>
-      <c r="C130" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="D130" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="85"/>
-      <c r="G130" s="86"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="80">
-        <v>123</v>
-      </c>
-      <c r="C131" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="D131" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="85"/>
-      <c r="G131" s="86"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="80">
-        <v>124</v>
-      </c>
-      <c r="C132" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="D132" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="85"/>
-      <c r="G132" s="86"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="84">
-        <v>125</v>
-      </c>
-      <c r="C133" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="D133" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="85"/>
-      <c r="G133" s="86"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="80">
-        <v>126</v>
-      </c>
-      <c r="C134" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="D134" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="85"/>
-      <c r="G134" s="86"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" s="80">
-        <v>127</v>
-      </c>
-      <c r="C135" s="89" t="s">
-        <v>225</v>
-      </c>
-      <c r="D135" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="85"/>
-      <c r="G135" s="86"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" s="84">
-        <v>128</v>
-      </c>
-      <c r="C136" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="D136" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="E136" s="24"/>
-      <c r="F136" s="85"/>
-      <c r="G136" s="86"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137" s="80">
-        <v>129</v>
-      </c>
-      <c r="C137" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="D137" s="89" t="s">
-        <v>227</v>
-      </c>
-      <c r="E137" s="24"/>
-      <c r="F137" s="85"/>
-      <c r="G137" s="86"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B138" s="80">
-        <v>130</v>
-      </c>
-      <c r="C138" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="D138" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="85"/>
-      <c r="G138" s="86"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" s="84">
-        <v>131</v>
-      </c>
-      <c r="C139" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="D139" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="85"/>
-      <c r="G139" s="86"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B140" s="80">
-        <v>132</v>
-      </c>
-      <c r="C140" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="D140" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="E140" s="24"/>
-      <c r="F140" s="85"/>
-      <c r="G140" s="86"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="80">
-        <v>133</v>
-      </c>
-      <c r="C141" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="D141" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="86"/>
-    </row>
-    <row r="142" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="98">
-        <v>134</v>
-      </c>
-      <c r="C142" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="D142" s="92" t="s">
-        <v>86</v>
-      </c>
       <c r="E142" s="50"/>
-      <c r="F142" s="93"/>
-      <c r="G142" s="94"/>
+      <c r="F142" s="74"/>
+      <c r="G142" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_CLS_CompraCartera_V1.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="236">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>NUMBER(38)</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2506,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D135" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2783,7 +2786,9 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="64"/>
-      <c r="G11" s="78"/>
+      <c r="G11" s="78" t="s">
+        <v>235</v>
+      </c>
       <c r="H11" s="49"/>
       <c r="I11" s="42">
         <v>137</v>
